--- a/Grille_conso_elec.xlsx
+++ b/Grille_conso_elec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\ademe_fai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3553C4B-C7FC-415C-B36D-99E42A195C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101212E5-ACFA-4F96-9362-14913DAB92AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,6 +859,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,12 +896,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,27 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,21 +1210,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="53" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="46"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1271,7 +1271,7 @@
       <c r="C3" s="5">
         <v>3504</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="56" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -1280,7 +1280,7 @@
       <c r="F3" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="56" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="33" t="s">
@@ -1291,21 +1291,21 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="31" t="s">
         <v>15</v>
       </c>
@@ -1314,21 +1314,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="31" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="31" t="s">
         <v>18</v>
       </c>
@@ -1337,21 +1337,21 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="31" t="s">
         <v>21</v>
       </c>
@@ -1360,21 +1360,21 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="31" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="31" t="s">
         <v>25</v>
       </c>
@@ -1383,21 +1383,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>35.04</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="31" t="s">
         <v>27</v>
       </c>
@@ -1406,21 +1406,21 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>9127.92</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="31" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
@@ -1429,21 +1429,21 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="31" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="31" t="s">
         <v>33</v>
       </c>
@@ -1452,21 +1452,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="32" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="59" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="30" t="s">
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="31" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
@@ -1520,7 +1520,7 @@
       <c r="F13" s="28">
         <v>0</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="32" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="31" t="s">
         <v>14</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="57" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="30" t="s">
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -1562,7 +1562,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="50"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="31" t="s">
         <v>20</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="D16" s="29"/>
       <c r="E16" s="12"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="35" t="s">
         <v>39</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="45" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1602,7 +1602,7 @@
       <c r="D17" s="29"/>
       <c r="E17" s="12"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="31" t="s">
         <v>42</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="14" t="s">
         <v>43</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="D18" s="29"/>
       <c r="E18" s="12"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="31" t="s">
         <v>45</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="D19" s="29"/>
       <c r="E19" s="12"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="31" t="s">
         <v>48</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="45" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1661,7 +1661,7 @@
       <c r="D20" s="29"/>
       <c r="E20" s="12"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="31" t="s">
         <v>51</v>
       </c>
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="14" t="s">
         <v>43</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="D21" s="29"/>
       <c r="E21" s="12"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="32" t="s">
         <v>53</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="56"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="14" t="s">
         <v>46</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="51" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="31" t="s">
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="56"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="14" t="s">
         <v>55</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="18"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="36" t="s">
         <v>56</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="14" t="s">
         <v>57</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="18"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="48"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="36" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="56"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="14" t="s">
         <v>59</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="18"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="37" t="s">
         <v>60</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="18"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="37" t="s">
         <v>62</v>
       </c>
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="14" t="s">
         <v>62</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="18"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="52" t="s">
         <v>63</v>
       </c>
       <c r="H27" s="30" t="s">
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="14" t="s">
         <v>65</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="18"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="48"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="36" t="s">
         <v>56</v>
       </c>
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="56"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="14" t="s">
         <v>66</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="18"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="49"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="38" t="s">
         <v>58</v>
       </c>
@@ -1845,7 +1845,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="60"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="15" t="s">
         <v>67</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1877,7 +1877,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="14" t="s">
         <v>43</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="56"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="14" t="s">
         <v>46</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="14" t="s">
         <v>55</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="56"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="14" t="s">
         <v>59</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="56"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="14" t="s">
         <v>61</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="14" t="s">
         <v>62</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="56"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="14" t="s">
         <v>65</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="56"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="14" t="s">
         <v>66</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="56"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="14" t="s">
         <v>67</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="56"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="14" t="s">
         <v>71</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="56"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="14" t="s">
         <v>72</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="14" t="s">
         <v>73</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="57"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="17" t="s">
         <v>74</v>
       </c>
@@ -2088,12 +2088,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G29"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="G14:G21"/>
@@ -2103,6 +2097,12 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="G3:G10"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Grille_conso_elec.xlsx
+++ b/Grille_conso_elec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\modele-rcp-fai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101212E5-ACFA-4F96-9362-14913DAB92AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A5ABD-2C1C-4AEE-810B-55AA2C875C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Installation</t>
   </si>
@@ -227,12 +227,6 @@
     <t xml:space="preserve">   - Climatiseur</t>
   </si>
   <si>
-    <t>Site - Terrasse et Pylone</t>
-  </si>
-  <si>
-    <t>Site hébergement réseau mobile ‐ Terrasse et Pylone</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - Centrale de traitement d'air</t>
   </si>
   <si>
@@ -264,6 +258,30 @@
   </si>
   <si>
     <t>Consommation électrique annuelle (kWh)</t>
+  </si>
+  <si>
+    <t>Site - Terrasse</t>
+  </si>
+  <si>
+    <t>Site - Pylone</t>
+  </si>
+  <si>
+    <t>Site hébergement réseau mobile ‐ Terrasse</t>
+  </si>
+  <si>
+    <t>Site hébergement réseau mobile ‐ Pylone</t>
+  </si>
+  <si>
+    <t>Fin de vie</t>
+  </si>
+  <si>
+    <t>Fibre optique 4 brins</t>
+  </si>
+  <si>
+    <t>Fibre optique 6 brins</t>
+  </si>
+  <si>
+    <t>Masse de DEEE</t>
   </si>
 </sst>
 </file>
@@ -311,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -601,17 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -731,6 +744,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -739,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,22 +791,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -795,120 +812,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32657AA7-A293-41FC-8E8B-58993E82175E}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,21 +1242,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="60" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1233,877 +1265,925 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="40" t="str">
+      <c r="C2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="32" t="str">
         <f>A2</f>
         <v>Catégorie</v>
       </c>
-      <c r="E2" s="41" t="str">
+      <c r="E2" s="33" t="str">
         <f>B2</f>
         <v>Equipement</v>
       </c>
-      <c r="F2" s="43" t="str">
+      <c r="F2" s="35" t="str">
         <f>C2</f>
         <v>Consommation électrique annuelle (kWh)</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="34" t="str">
         <f>A2</f>
         <v>Catégorie</v>
       </c>
-      <c r="H2" s="41" t="str">
+      <c r="H2" s="33" t="str">
         <f>B2</f>
         <v>Equipement</v>
       </c>
-      <c r="I2" s="44" t="str">
+      <c r="I2" s="36" t="str">
         <f>C2</f>
         <v>Consommation électrique annuelle (kWh)</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>3504</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="31" t="s">
+        <v>93.467500000000001</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="31" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="15">
         <v>6132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="31" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="15">
         <v>23652</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="31" t="s">
+        <v>93.467500000000001</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="15">
         <v>23652</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="31" t="s">
+        <v>35.04</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="15">
         <v>23652</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>35.04</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="31" t="s">
+        <v>93.467500000000001</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="15">
         <v>23652</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>9127.92</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="31" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="15">
         <v>4248.6000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="31" t="s">
+        <v>93.467500000000001</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="31" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
+      <c r="I10" s="15">
+        <v>381.06</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="37">
         <v>4905.6000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="28">
-        <v>0</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="49">
+        <v>1</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="15">
         <v>97761.600000000006</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="38">
+        <v>18921.599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15">
+        <v>18921.599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C15" s="20">
         <v>97761.600000000006</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="28">
-        <v>0</v>
-      </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="32" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="15">
+        <v>231264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="62"/>
+      <c r="B16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4">
+      <c r="C16" s="22">
         <v>18921.599999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="D16" s="23"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="15">
+        <v>34886.699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
         <v>18921.599999999999</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5">
-        <v>18921.599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>18921.599999999999</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="31" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="15">
+        <v>13006.848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="62"/>
+      <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="5">
+      <c r="C18" s="5">
         <v>231264</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <v>231264</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="23">
-        <v>34886.699999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="15">
+        <v>16065.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="15">
         <v>13006.848</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
-      <c r="B18" s="14" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="57"/>
+      <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="5">
-        <v>16065.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
-      <c r="B19" s="15" t="s">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="15">
+        <v>97761.600000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="5">
-        <v>13006.848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="15">
+        <v>381.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="5">
-        <v>97761.600000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
-      <c r="B21" s="14" t="s">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="57"/>
+      <c r="B23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
-      <c r="B22" s="14" t="s">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57"/>
+      <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="46"/>
-      <c r="B23" s="14" t="s">
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="57"/>
+      <c r="B25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="36" t="s">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="57"/>
+      <c r="B26" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="57"/>
+      <c r="B27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="57"/>
+      <c r="B28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
-      <c r="B24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="36" t="s">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
+      <c r="B29" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="46"/>
-      <c r="B25" s="14" t="s">
+      <c r="I29" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="57"/>
+      <c r="B30" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="57"/>
+      <c r="B31" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="65"/>
+      <c r="B32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="6"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="57"/>
+      <c r="B34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="6"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="57"/>
+      <c r="B35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="57"/>
+      <c r="B36" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="57"/>
+      <c r="B37" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="57"/>
+      <c r="B38" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="46"/>
-      <c r="B26" s="14" t="s">
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="57"/>
+      <c r="B39" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="37" t="s">
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="57"/>
+      <c r="B40" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="52" t="s">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="57"/>
+      <c r="B42" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="14" t="s">
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="57"/>
+      <c r="B43" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
-      <c r="B30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="57"/>
+      <c r="B44" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="46"/>
-      <c r="B32" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
-      <c r="B33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
-      <c r="B34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="14" t="s">
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="57"/>
+      <c r="B45" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
-      <c r="B36" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="46"/>
-      <c r="B38" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
-      <c r="B39" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
-      <c r="B40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
-      <c r="B41" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="46"/>
-      <c r="B42" s="14" t="s">
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="57"/>
+      <c r="B46" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="46"/>
-      <c r="B43" s="14" t="s">
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="64"/>
+      <c r="B47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="5">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="46"/>
-      <c r="B44" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="7"/>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:D11"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="G11:G13"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="G3:G10"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grille_conso_elec.xlsx
+++ b/Grille_conso_elec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A5ABD-2C1C-4AEE-810B-55AA2C875C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD4ACE-9368-415E-B832-6AB880903A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>Installation</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Masse de DEEE</t>
+  </si>
+  <si>
+    <t>Boucle locale cuivre</t>
+  </si>
+  <si>
+    <t>Boucle locale fibre</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -761,11 +767,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,18 +931,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,25 +979,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32657AA7-A293-41FC-8E8B-58993E82175E}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,21 +1291,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="55" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="51"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1294,7 +1343,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1303,7 +1352,7 @@
       <c r="C3" s="5">
         <v>3504</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -1312,7 +1361,7 @@
       <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -1323,21 +1372,21 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>93.467500000000001</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="25" t="s">
         <v>15</v>
       </c>
@@ -1346,21 +1395,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
         <v>3504</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
@@ -1369,21 +1418,21 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>93.467500000000001</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="25" t="s">
         <v>21</v>
       </c>
@@ -1392,21 +1441,21 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>35.04</v>
-      </c>
-      <c r="D7" s="53"/>
+        <v>93.467500000000001</v>
+      </c>
+      <c r="D7" s="54"/>
       <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="25" t="s">
         <v>25</v>
       </c>
@@ -1415,21 +1464,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>93.467500000000001</v>
-      </c>
-      <c r="D8" s="53"/>
+        <v>35.04</v>
+      </c>
+      <c r="D8" s="54"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="25" t="s">
         <v>27</v>
       </c>
@@ -1438,21 +1487,21 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>9127.92</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
@@ -1461,21 +1510,21 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>93.467500000000001</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
@@ -1484,14 +1533,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="26" t="s">
         <v>47</v>
       </c>
@@ -1509,7 +1558,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="57"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1534,7 +1583,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
@@ -1559,7 +1608,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
@@ -1586,18 +1635,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="20">
-        <v>97761.600000000006</v>
-      </c>
-      <c r="D15" s="23"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="50"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="59"/>
       <c r="H15" s="25" t="s">
         <v>20</v>
@@ -1607,16 +1654,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22">
-        <v>18921.599999999999</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="50"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="59"/>
       <c r="H16" s="28" t="s">
         <v>39</v>
@@ -1626,18 +1673,18 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="61" t="s">
-        <v>17</v>
+      <c r="A17" s="51" t="s">
+        <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>18921.599999999999</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="20">
+        <v>97761.600000000006</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="59"/>
       <c r="H17" s="25" t="s">
         <v>42</v>
@@ -1647,16 +1694,16 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
-        <v>231264</v>
+      <c r="A18" s="52"/>
+      <c r="B18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="22">
+        <v>18921.599999999999</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="59"/>
       <c r="H18" s="25" t="s">
         <v>45</v>
@@ -1666,14 +1713,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
+      <c r="A19" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18921.599999999999</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="10"/>
@@ -1687,12 +1734,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="57"/>
-      <c r="B20" s="12" t="s">
-        <v>43</v>
+      <c r="A20" s="52"/>
+      <c r="B20" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>231264</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="10"/>
@@ -1706,11 +1753,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="65"/>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="23"/>
@@ -1725,19 +1774,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="A22" s="67"/>
+      <c r="B22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="25" t="s">
@@ -1747,18 +1794,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
-      <c r="B23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5">
+    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="69"/>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="57"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="29" t="s">
         <v>56</v>
       </c>
@@ -1767,17 +1814,19 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
-      <c r="B24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="57"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="29" t="s">
         <v>58</v>
       </c>
@@ -1786,17 +1835,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
-      <c r="B25" s="41" t="s">
-        <v>55</v>
+      <c r="A25" s="67"/>
+      <c r="B25" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="57"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="40" t="s">
         <v>60</v>
       </c>
@@ -1804,18 +1853,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="41" t="s">
-        <v>57</v>
+    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="67"/>
+      <c r="B26" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="15"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="65"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="40" t="s">
         <v>62</v>
       </c>
@@ -1824,9 +1873,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="57"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -1834,7 +1883,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="66" t="s">
         <v>74</v>
       </c>
       <c r="H27" s="24" t="s">
@@ -1845,9 +1894,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="57"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -1855,7 +1904,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="57"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="29" t="s">
         <v>56</v>
       </c>
@@ -1864,9 +1913,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -1874,7 +1923,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="65"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="30" t="s">
         <v>58</v>
       </c>
@@ -1883,9 +1932,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -1893,7 +1942,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="15"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="66" t="s">
         <v>75</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -1904,9 +1953,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -1914,7 +1963,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="57"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="29" t="s">
         <v>56</v>
       </c>
@@ -1923,17 +1972,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
-      <c r="B32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="16"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="15"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="65"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="30" t="s">
         <v>58</v>
       </c>
@@ -1942,26 +1991,24 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>67</v>
+      <c r="A33" s="67"/>
+      <c r="B33" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="15"/>
       <c r="F33" s="6"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="57"/>
-      <c r="B34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" s="69"/>
+      <c r="B34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4">
         <v>0</v>
       </c>
       <c r="D34" s="16"/>
@@ -1970,9 +2017,11 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="57"/>
-      <c r="B35" s="12" t="s">
-        <v>46</v>
+      <c r="A35" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
@@ -1980,14 +2029,12 @@
       <c r="D35" s="16"/>
       <c r="E35" s="15"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="41" t="s">
-        <v>55</v>
+      <c r="A36" s="67"/>
+      <c r="B36" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
@@ -1995,14 +2042,12 @@
       <c r="D36" s="16"/>
       <c r="E36" s="15"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="57"/>
-      <c r="B37" s="41" t="s">
-        <v>68</v>
+      <c r="A37" s="67"/>
+      <c r="B37" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="5">
         <v>0</v>
@@ -2015,9 +2060,9 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="57"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -2030,9 +2075,9 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="57"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -2045,9 +2090,9 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="57"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="5">
         <v>0</v>
@@ -2060,9 +2105,9 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="57"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -2075,9 +2120,9 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -2090,9 +2135,9 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="57"/>
-      <c r="B43" s="12" t="s">
-        <v>65</v>
+      <c r="A43" s="67"/>
+      <c r="B43" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -2105,9 +2150,9 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="57"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -2120,9 +2165,9 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="57"/>
-      <c r="B45" s="41" t="s">
-        <v>70</v>
+      <c r="A45" s="67"/>
+      <c r="B45" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -2135,9 +2180,9 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="57"/>
-      <c r="B46" s="12" t="s">
-        <v>71</v>
+      <c r="A46" s="67"/>
+      <c r="B46" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -2149,39 +2194,69 @@
       <c r="H46" s="25"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="64"/>
-      <c r="B47" s="14" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="67"/>
+      <c r="B47" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="67"/>
+      <c r="B48" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="68"/>
+      <c r="B49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="7"/>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A32"/>
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A35:A49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="A3:A16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A14"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="G3:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Grille_conso_elec.xlsx
+++ b/Grille_conso_elec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD4ACE-9368-415E-B832-6AB880903A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D921CC1-F6B7-452A-AF33-1C6B59E79B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,12 +348,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -802,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,9 +871,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -907,10 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,6 +921,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,6 +948,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,31 +972,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1273,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32657AA7-A293-41FC-8E8B-58993E82175E}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,21 +1284,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="64" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="62"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1314,45 +1307,45 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="32" t="str">
+      <c r="D2" s="31" t="str">
         <f>A2</f>
         <v>Catégorie</v>
       </c>
-      <c r="E2" s="33" t="str">
+      <c r="E2" s="32" t="str">
         <f>B2</f>
         <v>Equipement</v>
       </c>
-      <c r="F2" s="35" t="str">
+      <c r="F2" s="34" t="str">
         <f>C2</f>
         <v>Consommation électrique annuelle (kWh)</v>
       </c>
-      <c r="G2" s="34" t="str">
+      <c r="G2" s="33" t="str">
         <f>A2</f>
         <v>Catégorie</v>
       </c>
-      <c r="H2" s="33" t="str">
+      <c r="H2" s="32" t="str">
         <f>B2</f>
         <v>Equipement</v>
       </c>
-      <c r="I2" s="36" t="str">
+      <c r="I2" s="35" t="str">
         <f>C2</f>
         <v>Consommation électrique annuelle (kWh)</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>3504</v>
-      </c>
-      <c r="D3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -1361,399 +1354,399 @@
       <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>93.467500000000001</v>
-      </c>
-      <c r="D4" s="54"/>
+        <v>98</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="15">
-        <v>6132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>3504</v>
-      </c>
-      <c r="D5" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="15">
-        <v>23652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5">
-        <v>93.467500000000001</v>
-      </c>
-      <c r="D6" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="53"/>
       <c r="E6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="15">
-        <v>23652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
-        <v>93.467500000000001</v>
-      </c>
-      <c r="D7" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="53"/>
       <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="15">
-        <v>23652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>35.04</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="15">
-        <v>23652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5">
-        <v>9127.92</v>
-      </c>
-      <c r="D9" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="53"/>
       <c r="E9" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="15">
-        <v>4248.6000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5">
-        <v>93.467500000000001</v>
-      </c>
-      <c r="D10" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="53"/>
       <c r="E10" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="15">
-        <v>381.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="62" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="37">
-        <v>4905.6000000000004</v>
+      <c r="I11" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="49">
-        <v>1</v>
-      </c>
-      <c r="G12" s="59"/>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63"/>
       <c r="H12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="15">
-        <v>97761.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="43" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="49">
-        <v>1</v>
-      </c>
-      <c r="G13" s="60"/>
+      <c r="F13" s="46">
+        <v>0</v>
+      </c>
+      <c r="G13" s="64"/>
       <c r="H13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="38">
-        <v>18921.599999999999</v>
+      <c r="I13" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="45">
-        <v>0</v>
-      </c>
-      <c r="G14" s="58" t="s">
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="62" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="15">
-        <v>18921.599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="10"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="59"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="15">
-        <v>231264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="59"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="15">
-        <v>34886.699999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>97761.600000000006</v>
+        <v>0</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="15">
-        <v>13006.848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>18921.599999999999</v>
+        <v>0</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="15">
-        <v>16065.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <v>18921.599999999999</v>
+        <v>0</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="10"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="15">
-        <v>13006.848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>231264</v>
+        <v>0</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="59"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="25" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="15">
-        <v>97761.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1765,16 +1758,16 @@
       <c r="D21" s="23"/>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="60"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="26" t="s">
         <v>53</v>
       </c>
       <c r="I21" s="15">
-        <v>381.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1784,18 +1777,18 @@
       <c r="D22" s="23"/>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1798,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="67"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="29" t="s">
         <v>56</v>
       </c>
@@ -1814,7 +1807,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="65" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1826,7 +1819,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="67"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="29" t="s">
         <v>58</v>
       </c>
@@ -1835,7 +1828,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
@@ -1845,8 +1838,8 @@
       <c r="D25" s="23"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="40" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="48" t="s">
         <v>60</v>
       </c>
       <c r="I25" s="15">
@@ -1854,7 +1847,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="12" t="s">
         <v>46</v>
       </c>
@@ -1864,17 +1857,17 @@
       <c r="D26" s="16"/>
       <c r="E26" s="15"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="40" t="s">
+      <c r="G26" s="67"/>
+      <c r="H26" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="5">
@@ -1883,19 +1876,19 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="65" t="s">
         <v>74</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="5">
@@ -1904,7 +1897,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="67"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="29" t="s">
         <v>56</v>
       </c>
@@ -1913,8 +1906,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="5">
@@ -1923,17 +1916,17 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="67"/>
+      <c r="H29" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="67"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="5">
@@ -1942,19 +1935,19 @@
       <c r="D30" s="8"/>
       <c r="E30" s="15"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="65" t="s">
         <v>75</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="67"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="5">
@@ -1963,7 +1956,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="67"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="29" t="s">
         <v>56</v>
       </c>
@@ -1972,8 +1965,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="67"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="5">
@@ -1982,17 +1975,17 @@
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="30" t="s">
+      <c r="G32" s="67"/>
+      <c r="H32" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="5">
@@ -2004,7 +1997,7 @@
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="69"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="13" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2010,7 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="65" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2032,7 +2025,7 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
@@ -2045,7 +2038,7 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="12" t="s">
         <v>46</v>
       </c>
@@ -2060,8 +2053,8 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="67"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="66"/>
+      <c r="B38" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="5">
@@ -2075,8 +2068,8 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="67"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="66"/>
+      <c r="B39" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="5">
@@ -2090,8 +2083,8 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="67"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="66"/>
+      <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="5">
@@ -2105,8 +2098,8 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="66"/>
+      <c r="B41" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="5">
@@ -2120,8 +2113,8 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="66"/>
+      <c r="B42" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="5">
@@ -2135,8 +2128,8 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="67"/>
-      <c r="B43" s="41" t="s">
+      <c r="A43" s="66"/>
+      <c r="B43" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="5">
@@ -2150,8 +2143,8 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="66"/>
+      <c r="B44" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="5">
@@ -2165,7 +2158,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>65</v>
       </c>
@@ -2180,8 +2173,8 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="67"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="5">
@@ -2195,8 +2188,8 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="67"/>
-      <c r="B47" s="41" t="s">
+      <c r="A47" s="66"/>
+      <c r="B47" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="5">
@@ -2210,7 +2203,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="67"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
@@ -2236,7 +2229,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="7"/>
     </row>
   </sheetData>

--- a/Grille_conso_elec.xlsx
+++ b/Grille_conso_elec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aubet Louise\Nextcloud\Drive_Partagé\60-69 Tech\62 LCA (specific FU)\62.08 ADEME RCP FAI\Archives\Modèle\Input\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D921CC1-F6B7-452A-AF33-1C6B59E79B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA38B60-F81B-4DE3-8B02-C5A15408EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -927,6 +925,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,18 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32657AA7-A293-41FC-8E8B-58993E82175E}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1284,21 +1282,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="60" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1336,16 +1334,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="52" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -1354,7 +1352,7 @@
       <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="56" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -1365,193 +1363,193 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="55"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>98</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="15">
-        <v>0</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53"/>
+        <v>3504</v>
+      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="15">
-        <v>0</v>
+        <v>23652</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="55"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>82</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="15">
-        <v>0</v>
+        <v>23652</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>82</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="15">
-        <v>0</v>
+        <v>23652</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>35.04</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>23652</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="53"/>
+        <v>9127.92</v>
+      </c>
+      <c r="D9" s="57"/>
       <c r="E9" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>4248.6000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>82</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>381.06</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="66" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="36">
-        <v>0</v>
+        <v>4905.6000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1567,16 +1565,16 @@
       <c r="F12" s="46">
         <v>0</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <v>97761.600000000006</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
@@ -1592,16 +1590,16 @@
       <c r="F13" s="46">
         <v>0</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="37">
-        <v>0</v>
+        <v>18921.599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
@@ -1617,18 +1615,18 @@
       <c r="F14" s="42">
         <v>0</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="66" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>18921.599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
@@ -1638,16 +1636,16 @@
       <c r="D15" s="47"/>
       <c r="E15" s="10"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="63"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>231264</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="10" t="s">
         <v>83</v>
       </c>
@@ -1657,96 +1655,96 @@
       <c r="D16" s="47"/>
       <c r="E16" s="10"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="63"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>34886.699999999997</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>0</v>
+        <v>97761.600000000006</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="10"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="63"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>13006.848</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>0</v>
+        <v>18921.599999999999</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="10"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="63"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="15">
-        <v>0</v>
+        <v>16065.84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>18921.599999999999</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="10"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="63"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="15">
-        <v>0</v>
+        <v>13006.848</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>231264</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="63"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="25" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="15">
-        <v>0</v>
+        <v>97761.600000000006</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1758,16 +1756,16 @@
       <c r="D21" s="23"/>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="64"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="26" t="s">
         <v>53</v>
       </c>
       <c r="I21" s="15">
-        <v>0</v>
+        <v>381.06</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="66"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1777,7 +1775,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="25" t="s">
@@ -1788,7 +1786,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
@@ -1798,7 +1796,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="66"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="29" t="s">
         <v>56</v>
       </c>
@@ -1807,7 +1805,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1819,7 +1817,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="29" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1826,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="66"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
@@ -1838,7 +1836,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="66"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="48" t="s">
         <v>60</v>
       </c>
@@ -1847,7 +1845,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="66"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="12" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1855,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="15"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="67"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="48" t="s">
         <v>62</v>
       </c>
@@ -1866,7 +1864,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="66"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="12" t="s">
         <v>55</v>
       </c>
@@ -1876,7 +1874,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="50" t="s">
         <v>74</v>
       </c>
       <c r="H27" s="24" t="s">
@@ -1887,7 +1885,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="12" t="s">
         <v>57</v>
       </c>
@@ -1897,7 +1895,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="66"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="29" t="s">
         <v>56</v>
       </c>
@@ -1906,7 +1904,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="12" t="s">
         <v>59</v>
       </c>
@@ -1916,7 +1914,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="67"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="49" t="s">
         <v>58</v>
       </c>
@@ -1925,7 +1923,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="66"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
@@ -1935,7 +1933,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="15"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="50" t="s">
         <v>75</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -1946,7 +1944,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="12" t="s">
         <v>62</v>
       </c>
@@ -1956,7 +1954,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="66"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="29" t="s">
         <v>56</v>
       </c>
@@ -1965,7 +1963,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="12" t="s">
         <v>63</v>
       </c>
@@ -1975,7 +1973,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="67"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="49" t="s">
         <v>58</v>
       </c>
@@ -1984,7 +1982,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="66"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="12" t="s">
         <v>64</v>
       </c>
@@ -1997,7 +1995,7 @@
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="13" t="s">
         <v>65</v>
       </c>
@@ -2010,7 +2008,7 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2025,7 +2023,7 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="66"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
@@ -2038,7 +2036,7 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="66"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="12" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2051,7 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="66"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="12" t="s">
         <v>55</v>
       </c>
@@ -2068,7 +2066,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="66"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="12" t="s">
         <v>68</v>
       </c>
@@ -2083,7 +2081,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="66"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -2098,7 +2096,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="66"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="12" t="s">
         <v>61</v>
       </c>
@@ -2113,7 +2111,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="66"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="12" t="s">
         <v>62</v>
       </c>
@@ -2128,7 +2126,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="66"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="12" t="s">
         <v>63</v>
       </c>
@@ -2143,7 +2141,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="66"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="12" t="s">
         <v>64</v>
       </c>
@@ -2158,7 +2156,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="66"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="12" t="s">
         <v>65</v>
       </c>
@@ -2173,7 +2171,7 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="66"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
@@ -2188,7 +2186,7 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="66"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="12" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2201,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="66"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
@@ -2218,7 +2216,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="68"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="14" t="s">
         <v>72</v>
       </c>
@@ -2234,13 +2232,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="A35:A49"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A34"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="G3:G10"/>
     <mergeCell ref="A3:A16"/>
@@ -2250,6 +2241,13 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G21"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A35:A49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
